--- a/Year 3/Term 1/AI/labs/lab 2/Лабораторна робота_№2.xlsx
+++ b/Year 3/Term 1/AI/labs/lab 2/Лабораторна робота_№2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Пояснення" sheetId="1" r:id="rId1"/>
     <sheet name="Завдання" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t>W</t>
   </si>
@@ -144,12 +144,66 @@
   <si>
     <t>x9</t>
   </si>
+  <si>
+    <t>X(1)</t>
+  </si>
+  <si>
+    <t>X(2)</t>
+  </si>
+  <si>
+    <t>t(1) = 1</t>
+  </si>
+  <si>
+    <t>t(2) = 0</t>
+  </si>
+  <si>
+    <t>S=0(y=1)</t>
+  </si>
+  <si>
+    <t>S=-5(y=0)</t>
+  </si>
+  <si>
+    <t>S=4(y=1)</t>
+  </si>
+  <si>
+    <t>S=-2(y=0)</t>
+  </si>
+  <si>
+    <t>S=11(y=1)</t>
+  </si>
+  <si>
+    <t>S=-4(y=0)</t>
+  </si>
+  <si>
+    <t>S=15(y=1)</t>
+  </si>
+  <si>
+    <t>W(1)</t>
+  </si>
+  <si>
+    <t>W(2)</t>
+  </si>
+  <si>
+    <t>W(3)</t>
+  </si>
+  <si>
+    <t>W(4)</t>
+  </si>
+  <si>
+    <t>W(5)</t>
+  </si>
+  <si>
+    <t>W(6)</t>
+  </si>
+  <si>
+    <t>Почему предыдущий S ?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +225,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -186,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -255,11 +316,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,6 +366,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -368,15 +481,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -406,7 +519,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3162300" y="5743575"/>
+          <a:off x="3648075" y="6029325"/>
           <a:ext cx="2847975" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -497,8 +610,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -550,16 +663,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>441225</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>80077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>258439</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -573,9 +686,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6753225" y="6572250"/>
-          <a:ext cx="504825" cy="628650"/>
+        <a:xfrm rot="2811281">
+          <a:off x="6644505" y="6468847"/>
+          <a:ext cx="212253" cy="426814"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -610,16 +723,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>443991</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>123486</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -633,9 +746,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8010525" y="6581775"/>
-          <a:ext cx="504825" cy="1657350"/>
+        <a:xfrm rot="3291419">
+          <a:off x="7187114" y="6183739"/>
+          <a:ext cx="214050" cy="1508295"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -666,67 +779,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D49E63D-35BB-4F05-BAA5-86D0CE25DE87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2819400" y="8401050"/>
-          <a:ext cx="5829300" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -957,6 +1009,171 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561088</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="7429500"/>
+          <a:ext cx="7095238" cy="4257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E0914F-BF81-4921-BF0D-38E475BA8FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4286250" y="6343650"/>
+          <a:ext cx="5829300" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D44694B-9A23-4A86-87E5-C2AB4E71F660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4276725" y="5686425"/>
+          <a:ext cx="2847975" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1003,7 +1220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1038,7 +1255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1223,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H2:W34"/>
+  <dimension ref="H2:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1451,7 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H2" s="2">
         <v>1</v>
       </c>
@@ -1245,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H3" s="2">
         <v>1</v>
       </c>
@@ -1256,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -1267,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H7" s="2">
         <v>1</v>
       </c>
@@ -1278,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H8" s="2">
         <v>1</v>
       </c>
@@ -1289,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H9" s="2">
         <v>1</v>
       </c>
@@ -1298,6 +1515,12 @@
       </c>
       <c r="J9" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <f>Пояснення!O23</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="11:23" x14ac:dyDescent="0.25">
@@ -1325,37 +1548,37 @@
         <v>10</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="11:23" x14ac:dyDescent="0.25">
@@ -1838,101 +2061,919 @@
         <v>9</v>
       </c>
     </row>
+    <row r="37" spans="12:22" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="Q37" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A3:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>0</v>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D5" s="9"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D6" s="9"/>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D7" s="9"/>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="19"/>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="9"/>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="19"/>
+      <c r="J11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D12" s="9"/>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="19"/>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f>K12 + (-1 *L12)</f>
+        <v>-1</v>
+      </c>
+      <c r="N12" s="10">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f>M12 + 1*N12</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f>N12 + (-1*P12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f>Q12 + (1*R12)</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="14">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f>S12 + (-1*T12)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <f>U12 + (1*V12)</f>
+        <v>1</v>
+      </c>
+      <c r="X12" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <f>W12 * (-1 * X12)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M20" si="0">K13 + (-1 *L13)</f>
+        <v>-1</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O20" si="1">M13 + 1*N13</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q20" si="2">N13 + (-1*P13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:S20" si="3">Q13 + (1*R13)</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="15">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13:U20" si="4">S13 + (-1*T13)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ref="W13:W20" si="5">U13 + (1*V13)</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" ref="Y13:Y20" si="6">W13 * (-1 * X13)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G14" s="19"/>
+      <c r="I14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N14" s="11">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="15">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="11">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X14" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G15" s="19"/>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="12">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T15" s="16">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V15" s="12">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="X15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G16" s="19"/>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="P16" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R16" s="11">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="T16" s="15">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="V16" s="11">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="X16" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G17" s="19"/>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="11">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T17" s="15">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V17" s="11">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="X17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="11">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V18" s="11">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="X18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="P19" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="T19" s="15">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="X19" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="I20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="13">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T20" s="17">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V20" s="13">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="X20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="J21" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="J22" s="22">
+        <f>J12*K12 + J13*K13 + J14*K14 + J15*K15 + J16*K16 + J17*K17 + J18*K18 + J19*K19 + J20*K20</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="22">
+        <f>L12*M12 + L13*M13 +L14*M14 + L15*M15 + L16*M16 + L17*M17 + L18*M18 + L19*M19 + L20*M20</f>
+        <v>-5</v>
+      </c>
+      <c r="N22" s="18">
+        <f>N12*O12 + N13*O13 + N14*O14 + N15*O15 + N16*O16 + N17*O17 + N18*O18 + N19*O19 + N20*O20</f>
+        <v>4</v>
+      </c>
+      <c r="P22" s="18">
+        <f>P12*Q12 + P13*Q13 + P14*Q14 + P15*Q15 + P16*Q16 + P17*Q17 + P18*Q18 + P19*Q19 + P20*Q20</f>
+        <v>-2</v>
+      </c>
+      <c r="R22" s="18">
+        <f>R12*S12 + R13*S13 + R14*S14 + R15*S15 + R16*S16 + R17*S17 + R18*S18 + R19*S19 + R20*S20</f>
+        <v>11</v>
+      </c>
+      <c r="T22" s="18">
+        <f>T12*U12 + T13*U13 + T14*U14 + T15*U15 + T16*U16 + T17*U17 + T18*U18 + T19*U19 + T20*U20</f>
+        <v>-4</v>
+      </c>
+      <c r="V22" s="18">
+        <f>V12*W12 + V13*W13 + V14*W14 + V15*W15 + V16*W16 + V17*W17 + V18*W18 + V19*W19 + V20*W20</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="J23" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G31" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>